--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-submit-health-event-response.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-submit-health-event-response.xlsx
@@ -288,7 +288,7 @@
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>transaction-response</t>
+    <t>batch-response</t>
   </si>
   <si>
     <t>required</t>
